--- a/template Excel/HR/KPIHRM.xlsx
+++ b/template Excel/HR/KPIHRM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788B63AC-9731-481F-81CB-8E584FF03574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FA4E18-33BA-42EF-AA89-1AD3161507A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{B0D8FE0B-1010-4085-9473-B57DE7E70A16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B0D8FE0B-1010-4085-9473-B57DE7E70A16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,18 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t xml:space="preserve"> PassRateFirstInterview</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CostPerHire</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WorkPerformanceScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ConsciousnessScore</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -60,6 +48,18 @@
   </si>
   <si>
     <t>RecruitmentApplications</t>
+  </si>
+  <si>
+    <t>PassRateFirstInterview</t>
+  </si>
+  <si>
+    <t>CostPerHire</t>
+  </si>
+  <si>
+    <t>WorkPerformanceScore</t>
+  </si>
+  <si>
+    <t>ConsciousnessScore</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,28 +466,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>45515</v>
@@ -521,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
         <v>45515</v>
@@ -547,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <v>45515</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1004</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>45515</v>
@@ -599,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1005</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>45515</v>
@@ -625,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1006</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>45516</v>
@@ -651,7 +651,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1007</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>45517</v>
@@ -677,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1008</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
         <v>45518</v>
@@ -703,7 +703,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1009</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>45519</v>
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1010</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
         <v>45520</v>

--- a/template Excel/HR/KPIHRM.xlsx
+++ b/template Excel/HR/KPIHRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FA4E18-33BA-42EF-AA89-1AD3161507A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E767EF5E-4FF5-4FCB-81C1-0BDF2407B917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B0D8FE0B-1010-4085-9473-B57DE7E70A16}"/>
   </bookViews>
